--- a/Logistic Regression/data/testingset.xlsx
+++ b/Logistic Regression/data/testingset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livenorthumbriaac-my.sharepoint.com/personal/w20027449_northumbria_ac_uk/Documents/Year 2/KF5012- Software Enginering Practice/Assessment/Group/Quirrell/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikif\OneDrive - Northumbria University - Production Azure AD\Year 2\KF5012- Software Enginering Practice\Assessment\Group\Quirrell\Logistic Regression\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="11_8AC65EE5F9B6BE26DCD01C8621BF65585EDCFED7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA6DE7E8-D748-417B-BC6C-35A56A49B9AF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1449CB-5A8C-4CB6-9188-530B53738491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,16 +517,17 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="23.88671875" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="23.90625" customWidth="1"/>
+    <col min="15" max="15" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -694,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -768,7 +769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -842,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -932,7 +933,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -944,7 +945,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
